--- a/Safe_Results/SA_Locations/SA_Locations_Minnesota.xlsx
+++ b/Safe_Results/SA_Locations/SA_Locations_Minnesota.xlsx
@@ -521,43 +521,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.53155</v>
+        <v>22.99835</v>
       </c>
       <c r="C2" t="n">
-        <v>9.113199999999999</v>
+        <v>9.009249999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>192.0979</v>
+        <v>197.02425</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6831.318949999999</v>
+        <v>6495.752149999998</v>
       </c>
       <c r="G2" t="n">
-        <v>5622.864149999999</v>
+        <v>5362.409900000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1208.4549</v>
+        <v>1133.3425</v>
       </c>
       <c r="I2" t="n">
-        <v>1208.4549</v>
+        <v>1133.3425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6333.890800000001</v>
+        <v>5983.008599999999</v>
       </c>
       <c r="L2" t="n">
-        <v>5622.867</v>
+        <v>5362.422</v>
       </c>
       <c r="M2" t="n">
-        <v>711.0237999999999</v>
+        <v>620.5866</v>
       </c>
       <c r="N2" t="n">
-        <v>711.0237999999999</v>
+        <v>620.5866</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.189</v>
+        <v>22.867</v>
       </c>
       <c r="C3" t="n">
-        <v>9.032</v>
+        <v>9.141</v>
       </c>
       <c r="D3" t="n">
-        <v>195.312</v>
+        <v>196.595</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6892.025</v>
+        <v>6558.194</v>
       </c>
       <c r="G3" t="n">
-        <v>5604.182</v>
+        <v>5349.126</v>
       </c>
       <c r="H3" t="n">
-        <v>1287.843</v>
+        <v>1209.068</v>
       </c>
       <c r="I3" t="n">
-        <v>1287.843</v>
+        <v>1209.068</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6333.544800000001</v>
+        <v>5979.8758</v>
       </c>
       <c r="L3" t="n">
-        <v>5604.179</v>
+        <v>5349.074</v>
       </c>
       <c r="M3" t="n">
-        <v>729.3658000000001</v>
+        <v>630.8018</v>
       </c>
       <c r="N3" t="n">
-        <v>729.3658000000001</v>
+        <v>630.8018</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,43 +619,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.266</v>
+        <v>26.357</v>
       </c>
       <c r="C4" t="n">
-        <v>9.795</v>
+        <v>10.383</v>
       </c>
       <c r="D4" t="n">
-        <v>207.801</v>
+        <v>209.797</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.777</v>
+        <v>7515.411</v>
       </c>
       <c r="G4" t="n">
-        <v>6315.404</v>
+        <v>5900.331</v>
       </c>
       <c r="H4" t="n">
-        <v>1601.373</v>
+        <v>1615.08</v>
       </c>
       <c r="I4" t="n">
-        <v>1601.373</v>
+        <v>1615.08</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6615.6782</v>
+        <v>6187.2038</v>
       </c>
       <c r="L4" t="n">
-        <v>6315.404</v>
+        <v>5900.331</v>
       </c>
       <c r="M4" t="n">
-        <v>300.2742</v>
+        <v>286.8728</v>
       </c>
       <c r="N4" t="n">
-        <v>300.2742</v>
+        <v>286.8728</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -764,43 +764,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.6288</v>
+        <v>22.89015</v>
       </c>
       <c r="C2" t="n">
-        <v>9.415399999999998</v>
+        <v>9.385699999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>188.339</v>
+        <v>194.3002</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6704.610799999999</v>
+        <v>6360.090999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>5617.5789</v>
+        <v>5343.9704</v>
       </c>
       <c r="H2" t="n">
-        <v>1087.03205</v>
+        <v>1016.1209</v>
       </c>
       <c r="I2" t="n">
-        <v>1087.03205</v>
+        <v>1016.1209</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6808.4496</v>
+        <v>6495.248399999999</v>
       </c>
       <c r="L2" t="n">
-        <v>5617.587</v>
+        <v>5343.98</v>
       </c>
       <c r="M2" t="n">
-        <v>1190.8626</v>
+        <v>1151.2684</v>
       </c>
       <c r="N2" t="n">
-        <v>1190.8626</v>
+        <v>1151.2684</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.216</v>
+        <v>22.814</v>
       </c>
       <c r="C3" t="n">
-        <v>9.27</v>
+        <v>9.388999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>189.954</v>
+        <v>194.162</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6773.475</v>
+        <v>6428.854</v>
       </c>
       <c r="G3" t="n">
-        <v>5576.304</v>
+        <v>5334.268</v>
       </c>
       <c r="H3" t="n">
-        <v>1197.171</v>
+        <v>1094.586</v>
       </c>
       <c r="I3" t="n">
-        <v>1197.171</v>
+        <v>1094.586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6801.4792</v>
+        <v>6494.179</v>
       </c>
       <c r="L3" t="n">
-        <v>5576.282</v>
+        <v>5334.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1225.1972</v>
+        <v>1159.929</v>
       </c>
       <c r="N3" t="n">
-        <v>1225.1972</v>
+        <v>1159.929</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,43 +862,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.266</v>
+        <v>26.357</v>
       </c>
       <c r="C4" t="n">
-        <v>9.795</v>
+        <v>10.383</v>
       </c>
       <c r="D4" t="n">
-        <v>207.801</v>
+        <v>209.797</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.777</v>
+        <v>7515.411</v>
       </c>
       <c r="G4" t="n">
-        <v>6315.404</v>
+        <v>5900.331</v>
       </c>
       <c r="H4" t="n">
-        <v>1601.373</v>
+        <v>1615.08</v>
       </c>
       <c r="I4" t="n">
-        <v>1601.373</v>
+        <v>1615.08</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7033.082800000001</v>
+        <v>6634.525200000001</v>
       </c>
       <c r="L4" t="n">
-        <v>6315.404</v>
+        <v>5900.331</v>
       </c>
       <c r="M4" t="n">
-        <v>717.6788</v>
+        <v>734.1942</v>
       </c>
       <c r="N4" t="n">
-        <v>717.6788</v>
+        <v>734.1942</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,43 +1007,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.0192</v>
+        <v>22.58955</v>
       </c>
       <c r="C2" t="n">
-        <v>9.056899999999999</v>
+        <v>9.17435</v>
       </c>
       <c r="D2" t="n">
-        <v>187.289</v>
+        <v>191.23895</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6659.820999999999</v>
+        <v>6330.07</v>
       </c>
       <c r="G2" t="n">
-        <v>5525.25105</v>
+        <v>5278.01935</v>
       </c>
       <c r="H2" t="n">
-        <v>1134.5701</v>
+        <v>1052.0509</v>
       </c>
       <c r="I2" t="n">
-        <v>1134.5701</v>
+        <v>1052.0509</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6976.9206</v>
+        <v>6616.836</v>
       </c>
       <c r="L2" t="n">
-        <v>5525.26</v>
+        <v>5278.029</v>
       </c>
       <c r="M2" t="n">
-        <v>1451.6606</v>
+        <v>1338.807</v>
       </c>
       <c r="N2" t="n">
-        <v>1451.6606</v>
+        <v>1338.807</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.983</v>
+        <v>22.705</v>
       </c>
       <c r="C3" t="n">
-        <v>9.103</v>
+        <v>9.209</v>
       </c>
       <c r="D3" t="n">
-        <v>188.254</v>
+        <v>188.364</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6730.028</v>
+        <v>6397.836</v>
       </c>
       <c r="G3" t="n">
-        <v>5530.051</v>
+        <v>5271.112</v>
       </c>
       <c r="H3" t="n">
-        <v>1199.977</v>
+        <v>1126.725</v>
       </c>
       <c r="I3" t="n">
-        <v>1199.977</v>
+        <v>1126.725</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6976.0238</v>
+        <v>6620.928</v>
       </c>
       <c r="L3" t="n">
-        <v>5530.089</v>
+        <v>5271.161</v>
       </c>
       <c r="M3" t="n">
-        <v>1445.9348</v>
+        <v>1349.767</v>
       </c>
       <c r="N3" t="n">
-        <v>1445.9348</v>
+        <v>1349.767</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,43 +1105,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.235</v>
+        <v>22.284</v>
       </c>
       <c r="C4" t="n">
-        <v>9.423999999999999</v>
+        <v>9.394</v>
       </c>
       <c r="D4" t="n">
-        <v>204.042</v>
+        <v>219.202</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7537.803</v>
+        <v>7281.11</v>
       </c>
       <c r="G4" t="n">
-        <v>5458.513</v>
+        <v>5460.984</v>
       </c>
       <c r="H4" t="n">
-        <v>2079.29</v>
+        <v>1820.126</v>
       </c>
       <c r="I4" t="n">
-        <v>2079.29</v>
+        <v>1820.126</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7019.436199999999</v>
+        <v>6616.0584</v>
       </c>
       <c r="L4" t="n">
-        <v>5458.513</v>
+        <v>5460.984</v>
       </c>
       <c r="M4" t="n">
-        <v>1560.9232</v>
+        <v>1155.0744</v>
       </c>
       <c r="N4" t="n">
-        <v>1560.9232</v>
+        <v>1155.0744</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1250,43 +1250,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.96525</v>
+        <v>22.51725</v>
       </c>
       <c r="C2" t="n">
-        <v>9.340449999999999</v>
+        <v>9.335249999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>187.4061</v>
+        <v>193.1642</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6622.63005</v>
+        <v>6287.32935</v>
       </c>
       <c r="G2" t="n">
-        <v>5530.836800000001</v>
+        <v>5290.304150000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1091.7934</v>
+        <v>997.0254000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>1091.7934</v>
+        <v>997.0254000000001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7096.462000000001</v>
+        <v>6759.1448</v>
       </c>
       <c r="L2" t="n">
-        <v>5530.837</v>
+        <v>5290.316</v>
       </c>
       <c r="M2" t="n">
-        <v>1565.625</v>
+        <v>1468.8288</v>
       </c>
       <c r="N2" t="n">
-        <v>1565.625</v>
+        <v>1468.8288</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.979</v>
+        <v>22.463</v>
       </c>
       <c r="C3" t="n">
-        <v>9.262</v>
+        <v>9.284000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>189.31</v>
+        <v>192.978</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6699.843</v>
+        <v>6362.588</v>
       </c>
       <c r="G3" t="n">
-        <v>5543.759</v>
+        <v>5280.59</v>
       </c>
       <c r="H3" t="n">
-        <v>1156.085</v>
+        <v>1081.998</v>
       </c>
       <c r="I3" t="n">
-        <v>1156.085</v>
+        <v>1081.998</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7095.389</v>
+        <v>6760.028200000001</v>
       </c>
       <c r="L3" t="n">
-        <v>5543.69</v>
+        <v>5280.656</v>
       </c>
       <c r="M3" t="n">
-        <v>1551.699</v>
+        <v>1479.3722</v>
       </c>
       <c r="N3" t="n">
-        <v>1551.699</v>
+        <v>1479.3722</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,43 +1348,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.266</v>
+        <v>26.357</v>
       </c>
       <c r="C4" t="n">
-        <v>9.795</v>
+        <v>10.383</v>
       </c>
       <c r="D4" t="n">
-        <v>207.801</v>
+        <v>209.797</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.777</v>
+        <v>7515.411</v>
       </c>
       <c r="G4" t="n">
-        <v>6315.404</v>
+        <v>5900.331</v>
       </c>
       <c r="H4" t="n">
-        <v>1601.373</v>
+        <v>1615.08</v>
       </c>
       <c r="I4" t="n">
-        <v>1601.373</v>
+        <v>1615.08</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7198.371600000001</v>
+        <v>6801.3754</v>
       </c>
       <c r="L4" t="n">
-        <v>6315.404</v>
+        <v>5900.331</v>
       </c>
       <c r="M4" t="n">
-        <v>882.9676000000002</v>
+        <v>901.0444</v>
       </c>
       <c r="N4" t="n">
-        <v>882.9676000000002</v>
+        <v>901.0444</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1493,43 +1493,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.1498</v>
+        <v>22.5829</v>
       </c>
       <c r="C2" t="n">
-        <v>9.076849999999999</v>
+        <v>9.088249999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>189.9102</v>
+        <v>196.0308</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6717.2902</v>
+        <v>6380.1515</v>
       </c>
       <c r="G2" t="n">
-        <v>5560.8231</v>
+        <v>5309.8822</v>
       </c>
       <c r="H2" t="n">
-        <v>1156.46715</v>
+        <v>1070.2695</v>
       </c>
       <c r="I2" t="n">
-        <v>1156.46715</v>
+        <v>1070.2695</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6706.5644</v>
+        <v>6377.329</v>
       </c>
       <c r="L2" t="n">
-        <v>5560.829</v>
+        <v>5309.897</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.7354</v>
+        <v>1067.432</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.7354</v>
+        <v>1067.432</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.934</v>
+        <v>22.642</v>
       </c>
       <c r="C3" t="n">
-        <v>9.064</v>
+        <v>9.195</v>
       </c>
       <c r="D3" t="n">
-        <v>190.068</v>
+        <v>192.508</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6796.7</v>
+        <v>6458.032</v>
       </c>
       <c r="G3" t="n">
-        <v>5536.524</v>
+        <v>5294.496</v>
       </c>
       <c r="H3" t="n">
-        <v>1260.176</v>
+        <v>1163.536</v>
       </c>
       <c r="I3" t="n">
-        <v>1260.176</v>
+        <v>1163.536</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6708.539600000001</v>
+        <v>6376.9068</v>
       </c>
       <c r="L3" t="n">
-        <v>5536.523</v>
+        <v>5294.425</v>
       </c>
       <c r="M3" t="n">
-        <v>1172.0166</v>
+        <v>1082.4818</v>
       </c>
       <c r="N3" t="n">
-        <v>1172.0166</v>
+        <v>1082.4818</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,43 +1591,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.266</v>
+        <v>26.357</v>
       </c>
       <c r="C4" t="n">
-        <v>9.795</v>
+        <v>10.383</v>
       </c>
       <c r="D4" t="n">
-        <v>207.801</v>
+        <v>209.797</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.777</v>
+        <v>7515.411</v>
       </c>
       <c r="G4" t="n">
-        <v>6315.404</v>
+        <v>5900.331</v>
       </c>
       <c r="H4" t="n">
-        <v>1601.373</v>
+        <v>1615.08</v>
       </c>
       <c r="I4" t="n">
-        <v>1601.373</v>
+        <v>1615.08</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6913.321000000001</v>
+        <v>6514.829400000001</v>
       </c>
       <c r="L4" t="n">
-        <v>6315.404</v>
+        <v>5900.331</v>
       </c>
       <c r="M4" t="n">
-        <v>597.917</v>
+        <v>614.4984000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>597.917</v>
+        <v>614.4984000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
